--- a/sourceTables/Sliced/FictionTolkienMascElves.xlsx
+++ b/sourceTables/Sliced/FictionTolkienMascElves.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nag\PycharmProjects\MyNamesEnvironment\sourceTables\Sliced\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\Development\Nickname generator wrap\MyNamesEnvironment\sourceTables\Sliced\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="728">
   <si>
     <t>Eng Name</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Image Name</t>
   </si>
   <si>
-    <t>Eng Plist</t>
-  </si>
-  <si>
     <t>Rus Name</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t>Rus URL</t>
-  </si>
-  <si>
-    <t>Rus Plist</t>
   </si>
   <si>
     <t>Aegnor</t>
@@ -2614,26 +2608,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.1328125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.1328125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="41.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1328125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="3.265625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.86328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="34.1328125" style="8" customWidth="1"/>
     <col min="12" max="12" width="34" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2649,78 +2643,74 @@
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="G1" s="7"/>
       <c r="H1" s="5"/>
       <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="10" t="str">
         <f t="shared" ref="G2:G33" si="0">CONCATENATE("&lt;key&gt;",B2,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A2,".01","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D2,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E2,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F2,"&lt;/string&gt;&lt;/dict&gt;")</f>
         <v>&lt;key&gt;Aegnor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.1.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Aegnor was a Ñoldorin Elf, the third son of Finarfin, elder brother of Galadriel, younger brother of Finrod Felagund and Angrod and lord of the Ñoldor of Dorthonion in the First Age.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Aegnor&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAegnor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="L2" s="11" t="str">
         <f t="shared" ref="L2:L33" si="1">CONCATENATE("&lt;key&gt;",B2,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A2,".01","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",J2,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",K2,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F2,"&lt;/string&gt;&lt;/dict&gt;")</f>
         <v>&lt;key&gt;Aegnor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.1.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Аэгнор (англ.Aegnor) — третий сын Финарфина и Эарвен. Брат Финрода, Ангрода и Галадриэль.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%8D%D0%B3%D0%BD%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAegnor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
       <c r="G3" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2731,200 +2721,200 @@
         <v>&lt;key&gt;Aerandir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.2.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAerandir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Amdír&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.3.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Amdír, also known as Malgalad[1], was an Elf of Lothlórien, the father of Amroth and King of Lórien.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Amd%C3%ADr&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAmdir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Amdír&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.3.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BC%D0%B4%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAmdir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Amras&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.4.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The main part of this article relates to the last versions of Middle-earth's history, and as such may controvert parts of The Silmarillion. See Middle-earth canon for a discussion. This subject's portrayal in earlier or alternative versions is discussed in the other versions of the legendarium section.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Amras&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAmras&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="L5" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Amras&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.4.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Амрас (англ.Amras) — эльф-нолдо, вместе со своим братом-близнецом Амродом был младшим из сыновей Феанора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BC%D1%80%D0%B0%D1%81&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAmras&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
       </c>
       <c r="G6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Amrod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.5.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The main part of this article relates to the last versions of Middle-earth's history, and as such may controvert parts of The Silmarillion. See Middle-earth canon for a discussion. This subject's portrayal in earlier or alternative versions is discussed in the other versions of the legendarium section.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Amrod&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAmrod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="L6" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Amrod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.5.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Кристофер Толкин отмечал, что приведённая ниже судьба Амрода являлась частью финального замысла его отца и не была включена в изданный Сильмариллион лишь по ошибке.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BC%D1%80%D0%BE%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAmrod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Amroth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.6.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Amroth was a handsome Elf king of Lothlórien.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Amroth&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAmroth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Amroth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.6.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BC%D1%80%D0%BE%D1%82&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAmroth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
       </c>
       <c r="G8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Angrod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.7.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Angrod was a Ñoldorin Elf, the second son of Finarfin and lord of the Ñoldor of Dorthonion.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Angrod&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAngrod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Angrod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.7.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D0%BD%D0%B3%D1%80%D0%BE%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAngrod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="F9" t="s">
         <v>54</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
       </c>
       <c r="G9" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2935,135 +2925,135 @@
         <v>&lt;key&gt;Aranel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.8.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAranel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="F10" t="s">
         <v>58</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
       </c>
       <c r="G10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Aranwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.9.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Aranwë was an Elf of Gondolin and the father of Voronwë.[1] His son stated that he was from the House of Fingolfin, suggesting that Aranwë might have been a noble elf in Gondolin.[2]&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Aranw%C3%AB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAranwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="J10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="L10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Aranwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.9.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Имя Аранвэ происходит от квенийского aran, 'король'. Следовательно, его имя может означать 'королевский, благородный'.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80%D0%B0%D0%BD%D0%B2%D1%8D&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAranwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
       </c>
       <c r="G11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Argon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.10.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The main part of this article relates to the last versions of Middle-earth's history, and as such may controvert parts of The Silmarillion. See Middle-earth canon for a discussion. This subject's portrayal in earlier or alternative versions is discussed in the other versions of the legendarium section.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Argon&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascArgon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="L11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Argon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.10.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;При жизни Аргона звали Аракано, 'благородный, высокий вождь'. Имя Аргон является синдаринской формой этого имени, и он сам её никогда не использовал. Однако, под ним он вошёл в предания, и позже это имя стало очень популярно среди эльдар.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80%D0%B3%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascArgon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="F12" t="s">
         <v>71</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
       </c>
       <c r="G12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Arminas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.11.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Arminas was a Ñoldor Elf of the First Age.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Arminas&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascArminas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="L12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Arminas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.11.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Арминас    Арминас и Гелмир    Имя:  Арминас    Раса:  Квенди    Культура:  Нолдор    Пол:  Мужской    Государство:  Дортонион, Гавани Сириона  Арминас - эльф  из отряда Ангрода, живший сперва в Дортонионе,  но позже бежавший с ним к народу Кирдана  в Устье Сириона.  Он и Гелмир  были отправлены Кирданом в путешествие в качестве посланников, и во время своего пути встретили Туора  и Турина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%90%D1%80%D0%BC%D0%B8%D0%BD%D0%B0%D1%81&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascArminas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="F13" t="s">
         <v>78</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
       </c>
       <c r="G13" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3074,24 +3064,24 @@
         <v>&lt;key&gt;Belenthrod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.12.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascBelenthrod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" t="s">
         <v>82</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
       </c>
       <c r="G14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3102,61 +3092,61 @@
         <v>&lt;key&gt;Berembor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.13.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascBerembor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="F15" t="s">
         <v>86</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
       </c>
       <c r="G15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Blodrin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.14.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Blodrin was a treacherous Elf whose story was told in the The Lays of Beleriand and in The Shaping of Middle-earth. He grew up among the wicked dwarves in Nogrod and developed their personality and greed.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Blodrin&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascBlodrin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="J15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="L15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Blodrin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.14.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Блодрин, сын Бана — участник отряда изгнанников Турина в ранних версиях Легендариума. Он был гномом-нолдоли, который оказался недовольным своей долей в награбленном, и сдал отряд оркам. Он был убит во время атаки на Амон Руд  в 489 П.Э. (тогда это был 189 П.Э.).&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%91%D0%BB%D0%BE%D0%B4%D1%80%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascBlodrin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="F16" t="s">
         <v>93</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
       </c>
       <c r="G16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3167,61 +3157,61 @@
         <v>&lt;key&gt;Caladhir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.15.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCaladhir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" t="s">
         <v>97</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" t="s">
-        <v>99</v>
       </c>
       <c r="G17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Caranthir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.16.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Caranthir, also known as Caranthir the Dark,[3] was the fourth son of Fëanor and the harshest and the quickest to anger of his seven brothers.[4]&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Caranthir&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCaranthir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="J17" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="L17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Caranthir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.16.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Карантир (англ. Caranthir) — эльф-нолдо, четвёртый сын Феанора. В Белерианде владел королевством, называемым Дор Карантир.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B0%D1%80%D0%B0%D0%BD%D1%82%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCaranthir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" t="s">
         <v>104</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" t="s">
-        <v>106</v>
       </c>
       <c r="G18" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3232,24 +3222,24 @@
         <v>&lt;key&gt;Celebrílad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.17.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCelebrilad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="F19" t="s">
         <v>108</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" t="s">
-        <v>110</v>
       </c>
       <c r="G19" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3260,129 +3250,129 @@
         <v>&lt;key&gt;Celebrim&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.18.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCelebrim&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="F20" t="s">
         <v>112</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" t="s">
-        <v>114</v>
       </c>
       <c r="G20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Celebrimbor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.19.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Celebrimbor was a Ñoldorin prince, and the last in the line of the House of Fëanor, who lived in Middle-earth. He was a ruler of Eregion in the Second Age, and a master smith. He is remembered primarily for his creation of the three greatest Elven Rings of Power: Vilya, Narya, and Nenya.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Celebrimbor&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCelebrimbor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L20" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Celebrimbor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.19.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B5%D0%BB%D0%B5%D0%B1%D1%80%D0%B8%D0%BC%D0%B1%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCelebrimbor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="F21" t="s">
         <v>118</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" t="s">
-        <v>120</v>
       </c>
       <c r="G21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Celegorm&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.20.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Celegorm, called Celegorm the Fair,[3] was the third son of Fëanor and Nerdanel, most closely associated with another brother, Curufin. He is somewhat anomalously described as having fair hair, rather than the black or red hair of his parents and his six siblings.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Celegorm&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCelegorm&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="J21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="L21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Celegorm&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.20.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Келегорм (англ. Celegorm | в некоторых переводах Целегорм) — третий сын Феанора. Прозвище 'The Fair' в вариантах перевода Светлый, Русый, Белокурый, позволяет предположить, что волосы Келегорма были светлыми (возможно, в бабушку Мириэль). Тоже самое подтверждает и его прозвище на староанглийском 'Фогерфэкс' - 'Светловолосый'. В Квенте Сильмариллион указывается на 'золотые' и 'длинные' волосы Келегорма, однако это противоречит более поздним версиям, где все принцы нолдор, корме Дома Финарфина, названы темноволосыми. Из-за этой путаницы Кристофер Толкин при составлении Сильмариллиона убрал указание на золотые волосы Келегорма. Тем не менее, многие художники рисуют Келегорма с золотыми волосами или серебристыми (в Мириэль).&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D0%B5%D0%BB%D0%B5%D0%B3%D0%BE%D1%80%D0%BC&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCelegorm&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="F22" t="s">
         <v>125</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" t="s">
-        <v>127</v>
       </c>
       <c r="G22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Curufin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.21.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Curufin, also called Curufin the Crafty,[3] was a Ñoldorin prince and the fifth of the seven Sons of Fëanor and Nerdanel. Curufin is the father of Celebrimbor, master Jewel-smith of Eregion who would later forge the three Elvish Rings of Power.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Curufin&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCurufin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L22" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Curufin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.21.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9A%D1%83%D1%80%D1%83%D1%84%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCurufin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="F23" t="s">
         <v>131</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" t="s">
-        <v>133</v>
       </c>
       <c r="G23" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3393,24 +3383,24 @@
         <v>&lt;key&gt;Dimtilion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.22.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascDimtilion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="F24" t="s">
         <v>135</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" t="s">
-        <v>137</v>
       </c>
       <c r="G24" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3421,24 +3411,24 @@
         <v>&lt;key&gt;Dínendal&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.23.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascDinendal&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="F25" t="s">
         <v>139</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" t="s">
-        <v>141</v>
       </c>
       <c r="G25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3449,169 +3439,169 @@
         <v>&lt;key&gt;Dorongúr&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.24.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascDorongur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="F26" t="s">
         <v>143</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" t="s">
-        <v>145</v>
       </c>
       <c r="G26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Ecthelion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.25.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ecthelion, or Ecthelion of the Fountain, was a mighty lord of Gondolin during the First Age of Middle-earth, and one of its greatest heroes.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Ecthelion_of_the_Fountain&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascEcthelion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Ecthelion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.25.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BA%D1%82%D0%B5%D0%BB%D0%B8%D0%BE%D0%BD_(%D1%8D%D0%BB%D1%8C%D1%84)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascEcthelion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="F27" t="s">
         <v>149</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" t="s">
-        <v>151</v>
       </c>
       <c r="G27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Edrahil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.26.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Edrahil was an Elf of Nargothrond.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Edrahil&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascEdrahil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I27" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="J27" t="s">
-        <v>153</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="L27" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Edrahil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.26.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эдрахиль (англ.Edrahil) — эльф из нолдоров Дома Финарфина. Один из верных приближённых Финрода в Нарготронде.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%B4%D1%80%D0%B0%D1%85%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascEdrahil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="F28" t="s">
         <v>156</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" t="s">
-        <v>158</v>
       </c>
       <c r="G28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Egalmoth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.27.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Egalmoth was an Ñoldorin Elf-lord of Gondolin during the First Age.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Egalmoth_(elf)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascEgalmoth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="J28" t="s">
-        <v>160</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="L28" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Egalmoth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.27.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эгалмот (синд. Egalmoth) — эльф из гондолиндрим, лорд Дома Небесной Арки, младшего из эльфийских Домов, что поддерживали Дом Финголфина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%B3%D0%B0%D0%BB%D0%BC%D0%BE%D1%82_(%D1%8D%D0%BB%D1%8C%D1%84)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascEgalmoth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="F29" t="s">
         <v>163</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" t="s">
-        <v>165</v>
       </c>
       <c r="G29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Elemmakil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.28.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Elemmakil was an Elf of Gondolin.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Elemmakil&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascElemmakil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="J29" t="s">
-        <v>167</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="L29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Elemmakil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.28.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Элеммакиль − эльф, начальник Стражи Орфалх-Эхора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D0%B5%D0%BC%D0%BC%D0%B0%D0%BA%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascElemmakil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="F30" t="s">
         <v>170</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" t="s">
-        <v>172</v>
       </c>
       <c r="G30" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3622,61 +3612,61 @@
         <v>&lt;key&gt;Elros&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.29.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascElros&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="F31" t="s">
         <v>174</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" t="s">
-        <v>176</v>
       </c>
       <c r="G31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;key&gt;Enerdhil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.30.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Enerdhil was a possibly mythical jewel-smith of Gondolin.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Enerdhil&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascEnerdhil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J31" t="s">
+        <v>176</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="J31" t="s">
-        <v>178</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="L31" s="11" t="str">
         <f t="shared" si="1"/>
         <v>&lt;key&gt;Enerdhil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.30.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Энердиль (англ.Erendhil) — эльф из нолдор, создатель первого Элессара.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BD%D0%B5%D1%80%D0%B4%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascEnerdhil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="F32" t="s">
         <v>181</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" t="s">
-        <v>183</v>
       </c>
       <c r="G32" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3687,24 +3677,24 @@
         <v>&lt;key&gt;Erellont&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.31.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascErellont&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="F33" t="s">
         <v>185</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F33" t="s">
-        <v>187</v>
       </c>
       <c r="G33" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3715,24 +3705,24 @@
         <v>&lt;key&gt;Erethón&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.32.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascErethon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="F34" t="s">
         <v>189</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" t="s">
-        <v>191</v>
       </c>
       <c r="G34" s="10" t="str">
         <f t="shared" ref="G34:G65" si="2">CONCATENATE("&lt;key&gt;",B34,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A34,".01","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D34,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E34,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F34,"&lt;/string&gt;&lt;/dict&gt;")</f>
@@ -3743,24 +3733,24 @@
         <v>&lt;key&gt;Falathar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.33.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFalathar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="F35" t="s">
         <v>193</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F35" t="s">
-        <v>195</v>
       </c>
       <c r="G35" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3771,243 +3761,243 @@
         <v>&lt;key&gt;Farambar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.34.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFarambar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="F36" t="s">
         <v>197</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" t="s">
-        <v>199</v>
       </c>
       <c r="G36" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Fëanor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.35.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Fëanor was a Ñoldorin elf and one of the Elven kindred that departed from Valinor in the land of Aman, where they had lived with the Valar.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/F%C3%ABanor&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFeanor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L36" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Fëanor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.35.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%B5%D0%B0%D0%BD%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFeanor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="F37" t="s">
         <v>203</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" t="s">
-        <v>205</v>
       </c>
       <c r="G37" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Finarfin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.36.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Finarfin was a Ñoldorin Elf of Valinor.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Finarfin&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFinarfin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I37" t="s">
+        <v>204</v>
+      </c>
+      <c r="J37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="J37" t="s">
-        <v>207</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="L37" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Finarfin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.36.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Фина́рфин (англ.Finarfin) — младший сын Финвэ и Индис. Младший брат Феанора (только по отцу), Финдис, Финголфина и Фаниэль, старший Иримэ. Отказался от Исхода Нолдор и вернулся в Эльдамар, став Верховным Королём нолдор Амана.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%B8%D0%BD%D0%B0%D1%80%D1%84%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFinarfin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="F38" t="s">
         <v>210</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F38" t="s">
-        <v>212</v>
       </c>
       <c r="G38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Fingolfin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.37.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Fingolfin was the second High King of the Ñoldor in Beleriand, the Ñoldor being one of the three branches of Elves. He was the eldest son of Finwë and Indis, younger brother of Findis, older brother of Irimë and Finarfin, and the younger half-brother of Fëanor. He founded the House of Fingolfin, which ruled the Ñoldor in Middle-earth. His wife was Anairë and his children were Fingon, Turgon, Aredhel, and Argon. Fingolfin was said to be the strongest, most steadfast, and most valiant of Finwë's sons.[3]&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Fingolfin&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFingolfin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I38" t="s">
+        <v>211</v>
+      </c>
+      <c r="J38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="J38" t="s">
-        <v>214</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="L38" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Fingolfin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.37.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Финголфин (англ.Fingolfin) — старший сын Финвэ и его второй жены Индис. Верховный король нолдор-изгнанников после получения Верховной королевской власти от Маэдроса. Младший брат Феанора (только по отцу) и Финдис, старший - Фаниэль, Финарфина и Иримэ.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%B8%D0%BD%D0%B3%D0%BE%D0%BB%D1%84%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFingolfin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="F39" t="s">
         <v>217</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F39" t="s">
-        <v>219</v>
       </c>
       <c r="G39" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Fingon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.38.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Fingon, the Valiant was an Ñoldorin elf, the eldest son of Fingolfin, and older brother of Turgon, Aredhel, and Argon.[1]&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Fingon&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFingon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I39" t="s">
+        <v>218</v>
+      </c>
+      <c r="J39" t="s">
+        <v>219</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="J39" t="s">
-        <v>221</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="L39" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Fingon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.38.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Фингон (англ. Fingon) — эльф из нолдор, старший сын Финголфина, прозванный «Отважным». Старший брат Тургона, Аредэль и Аргона, отец Эрейниона Гиль-галада.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%B8%D0%BD%D0%B3%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFingon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" t="s">
         <v>223</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F40" t="s">
-        <v>225</v>
       </c>
       <c r="G40" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Finrod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.39.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The main part of this article relates to the last versions of Middle-earth's history, and as such may controvert parts of The Silmarillion. See Middle-earth canon for a discussion. This subject's portrayal in earlier or alternative versions is discussed in the other versions of the legendarium section.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Finrod&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFinrod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I40" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" t="s">
+        <v>225</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="J40" t="s">
-        <v>227</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="L40" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Finrod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.39.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ф́инрод Ф́елагунд (англ. Finrod Felagund) - эльф, старший сын Финарфина и Эарвен. Брат Ангрода, Аэгнора и Галадриэль. Являлся предводителем эльфов-нолдор Дома Финарфина в бегстве из Валинора и землях Средиземья. По прибытии в последние, основал тайный город Нарготронд, где стал королём, также правя Дортонионом (через своих братьев-вассалов) и Минас Тиритом (через вассала-племянника). За счёт этого, владения Финрода значительно превосходило все прочие королевства нолдор, хотя сам Финрод числился младшим среди их владык.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%B8%D0%BD%D1%80%D0%BE%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFinrod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="F41" t="s">
         <v>230</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F41" t="s">
-        <v>232</v>
       </c>
       <c r="G41" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Finwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.40.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Finwë was the first High King of the Ñoldor who led his people on the journey from Middle-earth to Valinor in the blessed realm of Aman. He was a great friend of Elu Thingol, the King of Doriath. He was the father of Fëanor, Fingolfin, and Finarfin.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Finw%C3%AB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFinwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I41" t="s">
+        <v>231</v>
+      </c>
+      <c r="J41" t="s">
+        <v>232</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="J41" t="s">
-        <v>234</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="L41" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Finwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.40.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Финвэ (англ.Finwë) — эльф, выборный посланник от эльфов в Валинор, вождь нолдор в походе на запад от озера Куйвиэнен. Позже — король нолдор в Амане, родоначальник Домов Нолдор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A4%D0%B8%D0%BD%D0%B2%D1%8D&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFinwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="F42" t="s">
         <v>237</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F42" t="s">
-        <v>239</v>
       </c>
       <c r="G42" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4018,95 +4008,95 @@
         <v>&lt;key&gt;Galdor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.41.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGaldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="F43" t="s">
         <v>241</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F43" t="s">
-        <v>243</v>
       </c>
       <c r="G43" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Gelmir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.42.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Gelmir was a Ñoldorin Elf of Nargothrond, son of Guilin and brother of Gwindor.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Gelmir&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGelmir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I43" t="s">
+        <v>242</v>
+      </c>
+      <c r="J43" t="s">
+        <v>243</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="J43" t="s">
-        <v>245</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="L43" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Gelmir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.42.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Гельмир - эльф из Нарготронда, сын Гуилина и родной брат Гвиндора.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%B5%D0%BB%D1%8C%D0%BC%D0%B8%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGelmir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" t="s">
         <v>247</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F44" t="s">
-        <v>249</v>
       </c>
       <c r="G44" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Gildor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.43.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Gildor_Inglorion&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGildor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I44" t="s">
+        <v>248</v>
+      </c>
+      <c r="J44" t="s">
+        <v>249</v>
+      </c>
+      <c r="K44" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="J44" t="s">
-        <v>251</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="L44" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Gildor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.43.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Существует ошибочное мнение, что Гилдор мог быть сыном Финрлда, поскольку называет себя «Гилдор Инглорион из Дома Финрода». Он также говорт: «Мы изгнанники, и большинство наших сродников уже давно уплыли, да и мы только немного задержались здесь, прежде чем отправиться обратно через Великое Море». Во время, когда был написан «Властелин Колец», Финродом всё ещё звали персонажа, позже ставшего известным как Финарфин. Поскольку «Дом Финрода» — то же самое, что «Дом Финарфина» (в поздней редакции Толкин внёс это изменение), Гилдора можно поместить среди нолдор, состоявших в Доме Финарфина во время Исхода Нолдор и пришедших в Белерианд под предводительством Финрода Фелагунда.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%B8%D0%BB%D0%B4%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGildor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="F45" t="s">
         <v>254</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F45" t="s">
-        <v>256</v>
       </c>
       <c r="G45" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4117,98 +4107,98 @@
         <v>&lt;key&gt;Gilfanon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.44.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGilfanon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="F46" t="s">
         <v>258</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F46" t="s">
-        <v>260</v>
       </c>
       <c r="G46" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Gil-galad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.45.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Gil-galad, originally named Ereinion, was a Ñoldorin Elf, son of Fingon [note 2]. He was the last High King of the Ñoldor in Middle-earth, and bore many titles, including High King of the Elves of the West, King of the Eldar, King of Lindon, Lord of the High Elves, and the Lord of Eriador.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Gil-galad&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGilgalad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I46" t="s">
+        <v>259</v>
+      </c>
+      <c r="J46" t="s">
+        <v>260</v>
+      </c>
+      <c r="K46" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="J46" t="s">
-        <v>262</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="L46" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Gil-galad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.45.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Гиль-галад (англ.Gil-galad | варианты перевода — Гил-Галад или Гил-Гэлад) — имя, под которым был известен Эрейнион, сын Фингона и внук Финголфина. Шестой по счёту и последний Верховный Король нолдор-изгнанников. Основатель эльфийского государства Линдон.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%B8%D0%BB%D1%8C-%D0%B3%D0%B0%D0%BB%D0%B0%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGilgalad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="F47" t="s">
         <v>265</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F47" t="s">
-        <v>267</v>
       </c>
       <c r="G47" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Glorfindel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.46.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Glorfindel was one of the mighty of the Firstborn (the Elves), and was once the Lord of the House of the Golden Flower in Gondolin. After his death, he was re-embodied by the Valar to act as an emissary.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Glorfindel&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGlorfindel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I47" t="s">
+        <v>266</v>
+      </c>
+      <c r="J47" t="s">
+        <v>267</v>
+      </c>
+      <c r="K47" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="J47" t="s">
-        <v>269</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="L47" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Glorfindel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.46.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Глорфиндель (англ.Glorfindel | в некоторых переводах — Глорфиндел, Всеславур или Горислав) — эльф из калаквенди Валинора. В Гондолине был лордом Дома Золотого Цветка, одного из малых Домов поддерживающих Дома Финголфина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%BB%D0%BE%D1%80%D1%84%D0%B8%D0%BD%D0%B4%D0%B5%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGlorfindel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="8" t="s">
+      <c r="F48" t="s">
         <v>272</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F48" t="s">
-        <v>274</v>
       </c>
       <c r="G48" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4219,98 +4209,98 @@
         <v>&lt;key&gt;Guilin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.47.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGuilin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="F49" t="s">
         <v>276</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F49" t="s">
-        <v>278</v>
       </c>
       <c r="G49" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Gwindor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.48.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Gwindor was an Elf of Nargothrond during the First Age. He was the son of Guilin and a Prince of Nargothrond.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Gwindor&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGwindor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I49" t="s">
+        <v>277</v>
+      </c>
+      <c r="J49" t="s">
+        <v>278</v>
+      </c>
+      <c r="K49" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="J49" t="s">
-        <v>280</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="L49" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Gwindor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.48.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Гвиндор (англ. Gwindor) - эльф знатного рода из Нарготронда. Попал в плен к Морготу, но бежав из рудников Ангбанда, по дороге встретил Турина, которого привёл в Нарготронд. Погиб в битве на равнине Тумхалад.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%93%D0%B2%D0%B8%D0%BD%D0%B4%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGwindor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="F50" t="s">
         <v>283</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="F50" t="s">
-        <v>285</v>
       </c>
       <c r="G50" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Haldir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.49.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Haldir was an Elf of Lothlórien, probably a Silvan Elf, and a marchwarden who guarded the forest's northern borders. When the Fellowship of the Ring arrived in Lórien, he became their guide to Caras Galadhon. He and his companions are described as wearing grey hooded cloaks and residing on platforms or flets.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Haldir_(Lorien)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascHaldir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I50" t="s">
+        <v>284</v>
+      </c>
+      <c r="J50" t="s">
+        <v>285</v>
+      </c>
+      <c r="K50" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="J50" t="s">
-        <v>287</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="L50" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Haldir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.49.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Халдир — эльф из Лориэна. Разведчик и один из стражей северных границ Лориэна. У Халдира были братья: Румиль и Орофин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A5%D0%B0%D0%BB%D0%B4%D0%B8%D1%80_(%D1%8D%D0%BB%D1%8C%D1%84)&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascHaldir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="F51" t="s">
         <v>290</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F51" t="s">
-        <v>292</v>
       </c>
       <c r="G51" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4321,95 +4311,95 @@
         <v>&lt;key&gt;Hengest&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.50.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascHengest&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="8" t="s">
+      <c r="F52" t="s">
         <v>294</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F52" t="s">
-        <v>296</v>
       </c>
       <c r="G52" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Ingwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.51.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ingwë was a Vanyar Elf, the King of the Vanyar and the High King of the Elves.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Ingw%C3%AB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascIngwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I52" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L52" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Ingwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.51.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%98%D0%BD%D0%B3%D0%B2%D1%8D&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascIngwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>297</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="8" t="s">
+      <c r="F53" t="s">
         <v>300</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F53" t="s">
-        <v>302</v>
       </c>
       <c r="G53" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Ingwion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.52.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ingwion was the son of Ingwë, the High King of the Elves.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Ingwion&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascIngwion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I53" t="s">
+        <v>301</v>
+      </c>
+      <c r="J53" t="s">
+        <v>302</v>
+      </c>
+      <c r="K53" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="J53" t="s">
-        <v>304</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="L53" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Ingwion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.52.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ингвион был предводителем воинства ваниар в Войне Гнева. После войны вернулся в Валинор и более его не покидал.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%98%D0%BD%D0%B3%D0%B2%D0%B8%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascIngwion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="8" t="s">
+      <c r="F54" t="s">
         <v>307</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="F54" t="s">
-        <v>309</v>
       </c>
       <c r="G54" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4417,37 +4407,37 @@
 It is not known whether Legolas was Thranduil's only son, or whether he was heir to his father's crown.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Legolas&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascLegolas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I54" t="s">
+        <v>308</v>
+      </c>
+      <c r="J54" t="s">
+        <v>309</v>
+      </c>
+      <c r="K54" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="J54" t="s">
-        <v>311</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="L54" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Legolas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.53.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Леголас Зеленолист (Legolas Greenleaf) - эльф, сын Трандуила, короля эльфов Северного Лихолесья.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9B%D0%B5%D0%B3%D0%BE%D0%BB%D0%B0%D1%81&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascLegolas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>311</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="8" t="s">
+      <c r="F55" t="s">
         <v>314</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F55" t="s">
-        <v>316</v>
       </c>
       <c r="G55" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4458,169 +4448,169 @@
         <v>&lt;key&gt;Lindo&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.54.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascLindo&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="F56" t="s">
         <v>318</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="F56" t="s">
-        <v>320</v>
       </c>
       <c r="G56" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Maedhros&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.55.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Maedhros, also called Maedhros the Tall,[4] was one of the princes of the Ñoldor, the eldest of the seven Sons of Fëanor and head of the House of Fëanor following the death of his father in Middle-earth. For hundreds of years, he led his House against the forces of Morgoth but the Oath he and his six brothers swore to recover the Silmarils constrained him and ultimately led to his death.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Maedhros&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascMaedhros&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I56" t="s">
+        <v>319</v>
+      </c>
+      <c r="J56" t="s">
+        <v>320</v>
+      </c>
+      <c r="K56" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="J56" t="s">
-        <v>322</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>323</v>
       </c>
       <c r="L56" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Maedhros&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.55.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Маэдрос (Maedhros - в 'Сильмариллионе', в некоторых черновиках Толкина - Maidros — Майдрос) - старший сын Феанора и Нерданель. Верховный Король нолдор-изгнанников после гибели отца (отрёкся от титула в пользу дяди - Финголфина). Старший брат Маглора, Келегорма, Карантира, Куруфина, Амрода и Амраса.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D1%8D%D0%B4%D1%80%D0%BE%D1%81&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascMaedhros&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>322</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="F57" t="s">
         <v>325</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F57" t="s">
-        <v>327</v>
       </c>
       <c r="G57" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Maeglin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.56.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Maeglin was an Elf, the son of Eöl the 'Dark Elf' and Aredhel daughter of Fingolfin. He lived during the First Age of the Sun in Middle-earth, and was a lord of the Hidden Elven Kingdom of Gondolin. He became infamous for being the one who betrayed the location of Gondolin to the Dark Lord Morgoth who later destroyed the city and sacked its army.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Maeglin&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascMaeglin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I57" t="s">
+        <v>326</v>
+      </c>
+      <c r="J57" t="s">
+        <v>327</v>
+      </c>
+      <c r="K57" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="J57" t="s">
-        <v>329</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="L57" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Maeglin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.56.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Единственный из всех эльфов, принял сторону Властелина Тьмы Моргота. Маэглин был лордом эльфов Дома Крота в королевстве Гондолин и предал его, поспособствовав уничтожению собратьев силами зла.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D1%8D%D0%B3%D0%BB%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascMaeglin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>329</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="8" t="s">
+      <c r="F58" t="s">
         <v>332</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="F58" t="s">
-        <v>334</v>
       </c>
       <c r="G58" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Maglor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.57.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Maglor was the second son of Fëanor and Nerdanel. He was the greatest poet and minstrel of the Ñoldor and was said to have inherited more of his mother's gentler temperament.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Maglor&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascMaglor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I58" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L58" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Maglor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.57.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D0%B3%D0%BB%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascMaglor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>335</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="F59" t="s">
         <v>338</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F59" t="s">
-        <v>340</v>
       </c>
       <c r="G59" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Mahtan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.58.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Mahtan was a renowned Ñoldorin metallurgist of Aman and the father of Nerdanel, the wife of Fëanor.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Mahtan&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascMahtan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I59" t="s">
+        <v>339</v>
+      </c>
+      <c r="J59" t="s">
+        <v>340</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="J59" t="s">
-        <v>342</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="L59" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Mahtan&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.58.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Махтан - эльф-нолдо по происхождению. Великий кузнец, тесть и учитель Феанора. Во время Исхода остался в Валиноре. Был особым исключением из эльфов носивших бороду, так как борода у Махтана стала рости в начале второго цикла жизни (а не в третьем).&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9C%D0%B0%D1%85%D1%82%D0%B0%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascMahtan&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>342</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="8" t="s">
+      <c r="F60" t="s">
         <v>345</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F60" t="s">
-        <v>347</v>
       </c>
       <c r="G60" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4631,98 +4621,98 @@
         <v>&lt;key&gt;Nestadion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.59.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascNestadion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>346</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="8" t="s">
+      <c r="F61" t="s">
         <v>349</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F61" t="s">
-        <v>351</v>
       </c>
       <c r="G61" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Olwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.60.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Olwë was an Elf of the Teleri of Aman. When he and his kin reached Aman, they chose to remain there in both Tol Eressëa and Alqualondë apart from the rest of the Elves of Aman. He became both Lord of Alqualondë and King of the Teleri.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Olw%C3%AB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascOlwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I61" t="s">
+        <v>350</v>
+      </c>
+      <c r="J61" t="s">
+        <v>351</v>
+      </c>
+      <c r="K61" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="J61" t="s">
-        <v>353</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="L61" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Olwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.60.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ольвэ — эльф-тэлери, младший брат Элу Тингола, короля синдар, старший брат Эльмо.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9E%D0%BB%D1%8C%D0%B2%D1%8D&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascOlwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="F62" t="s">
         <v>356</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="F62" t="s">
-        <v>358</v>
       </c>
       <c r="G62" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Orodreth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.61.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Orodreth was a Ñoldorin Elf of the First Age who was the second ruler of the underground city of Nargothrond in western Beleriand. He was born to a Noldorin father, Finarfin, and a Telerin mother, Eärwen, in the city of Tirion during the Years of the Trees and was the brother of Finrod Felagund, Angrod, Aegnor and Galadriel. Orodreth had an only child and daughter Finduilas with an unnamed wife. He was later killed in the Battle of Tumhalad.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Orodreth&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascOrodreth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I62" t="s">
+        <v>357</v>
+      </c>
+      <c r="J62" t="s">
+        <v>358</v>
+      </c>
+      <c r="K62" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="J62" t="s">
-        <v>360</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>361</v>
       </c>
       <c r="L62" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Orodreth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.61.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ородрет (англ.Orodreth) — эльф из нолдор, второй сын Ангрода. Правитель крепости Минас Тирит на острове Тол-Сирион. Король Нарготронда после получения власти от дяди - Финрода.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9E%D1%80%D0%BE%D0%B4%D1%80%D0%B5%D1%82&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascOrodreth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>360</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="F63" t="s">
         <v>363</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="F63" t="s">
-        <v>365</v>
       </c>
       <c r="G63" s="10" t="str">
         <f t="shared" si="2"/>
@@ -4733,209 +4723,209 @@
         <v>&lt;key&gt;Orolonn&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.62.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascOrolonn&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>364</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="8" t="s">
+      <c r="F64" t="s">
         <v>367</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F64" t="s">
-        <v>369</v>
       </c>
       <c r="G64" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Orophin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.63.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Orophin was a Silvan Marchwarden from Lothlórien, and the brother of Haldir and Rúmil.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Orophin&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascOrophin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I64" t="s">
+        <v>368</v>
+      </c>
+      <c r="J64" t="s">
+        <v>369</v>
+      </c>
+      <c r="K64" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="J64" t="s">
-        <v>371</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="L64" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Orophin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.63.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Разведчик и один из стражей северных границ Лориэна. У него было два брата — Халдир и Румиль.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9E%D1%80%D0%BE%D1%84%D0%B8%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascOrophin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>371</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="F65" t="s">
         <v>374</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="F65" t="s">
-        <v>376</v>
       </c>
       <c r="G65" s="10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;key&gt;Pengolodh&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.64.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Pengolodh (or Pengoloð) was a Loremaster of the Ñoldor who dwelt in Gondolin.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Pengolodh&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascPengolodh&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I65" t="s">
+        <v>375</v>
+      </c>
+      <c r="J65" t="s">
+        <v>376</v>
+      </c>
+      <c r="K65" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="J65" t="s">
-        <v>378</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>379</v>
       </c>
       <c r="L65" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;key&gt;Pengolodh&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.64.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Пенголод (синд. Pengolodh) — эльфийский учёный из числа нолдор. В различных произведениях Джона Толкина его имя пишется также как Pengolod, Pengoloð, Pengoloth, Pengoloþ (окончание, однако, везде должно читаться как межзубный звонкий, как в английском this). Появляется только в «Истории Средиземья» и отсутствует во всех основных работах, напечатанных при жизни Толкина («Хоббит», «Властелин Колец») или посмертно («Сильмариллион»). Имя его — синдаризированный вариант имени на квенья — Квендинголдо (кв. Quendingoldo). Буквально оно означает «эльф из нолдор», но также переводится и как «учитель мудрости»[1].&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9F%D0%B5%D0%BD%D0%B3%D0%BE%D0%BB%D0%BE%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascPengolodh&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="9">
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>378</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="F66" t="s">
         <v>381</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="F66" t="s">
-        <v>383</v>
       </c>
       <c r="G66" s="10" t="str">
         <f t="shared" ref="G66:G96" si="4">CONCATENATE("&lt;key&gt;",B66,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A66,".01","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D66,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E66,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F66,"&lt;/string&gt;&lt;/dict&gt;")</f>
         <v>&lt;key&gt;Penlod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.65.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Penlod was an Elf of Gondolin during the First Age.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Penlod&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascPenlod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I66" t="s">
+        <v>382</v>
+      </c>
+      <c r="J66" t="s">
+        <v>383</v>
+      </c>
+      <c r="K66" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="J66" t="s">
-        <v>385</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>386</v>
       </c>
       <c r="L66" s="11" t="str">
         <f t="shared" ref="L66:L96" si="5">CONCATENATE("&lt;key&gt;",B66,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A66,".01","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",J66,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",K66,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F66,"&lt;/string&gt;&lt;/dict&gt;")</f>
         <v>&lt;key&gt;Penlod&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.65.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Пенлод (англ.Penlodh) — эльф из гондолиндрим, лорд Домов Столпа и Снежной Башни, младших эльфийских Домов, что поддерживали Дом Финголфина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9F%D0%B5%D0%BD%D0%BB%D0%BE%D0%B4&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascPenlod&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="9">
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>385</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="F67" t="s">
         <v>388</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F67" t="s">
-        <v>390</v>
       </c>
       <c r="G67" s="10" t="str">
         <f t="shared" si="4"/>
         <v>&lt;key&gt;Rúmil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.66.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Rúmil was an Elf of Lórien and brother of Orophin and Haldir, the leading marchwarden of Lórien, during the Third Age.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/R%C3%BAmil&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascRumil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I67" t="s">
+        <v>389</v>
+      </c>
+      <c r="J67" t="s">
+        <v>390</v>
+      </c>
+      <c r="K67" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="J67" t="s">
-        <v>392</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="L67" s="11" t="str">
         <f t="shared" si="5"/>
         <v>&lt;key&gt;Rúmil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.66.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Разведчик и один из стражей северных границ Лориэна. У него было два брата — Халдир и Орофин.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A0%D1%83%D0%BC%D0%B8%D0%BB%D1%8C&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascRumil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="9">
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>392</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="F68" t="s">
         <v>395</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F68" t="s">
-        <v>397</v>
       </c>
       <c r="G68" s="10" t="str">
         <f t="shared" si="4"/>
         <v>&lt;key&gt;Salgant&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.67.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Salgant was an Elf of Gondolin during the First Age.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Salgant&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascSalgant&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I68" t="s">
+        <v>396</v>
+      </c>
+      <c r="J68" t="s">
+        <v>397</v>
+      </c>
+      <c r="K68" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="J68" t="s">
-        <v>399</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="L68" s="11" t="str">
         <f t="shared" si="5"/>
         <v>&lt;key&gt;Salgant&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.67.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Салгант (англ.Salgant) - эльф из гондолиндрим, лорд Дома Арфы, младшего из эльфийских Домов, что поддерживали Дом Финголфина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A1%D0%B0%D0%BB%D0%B3%D0%B0%D0%BD%D1%82&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascSalgant&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="9">
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>399</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="F69" t="s">
         <v>402</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="F69" t="s">
-        <v>404</v>
       </c>
       <c r="G69" s="10" t="str">
         <f t="shared" si="4"/>
@@ -4946,24 +4936,24 @@
         <v>&lt;key&gt;Talagan Silvertongue&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.68.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascTalaganSilvertongue&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="9">
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>403</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="8" t="s">
+      <c r="F70" t="s">
         <v>406</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="F70" t="s">
-        <v>408</v>
       </c>
       <c r="G70" s="10" t="str">
         <f t="shared" si="4"/>
@@ -4974,24 +4964,24 @@
         <v>&lt;key&gt;Tellon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.69.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascTellon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="9">
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>407</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="F71" t="s">
         <v>410</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="F71" t="s">
-        <v>412</v>
       </c>
       <c r="G71" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5002,61 +4992,61 @@
         <v>&lt;key&gt;Thandronen&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.70.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascThandronen&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="9">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>411</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="8" t="s">
+      <c r="F72" t="s">
         <v>414</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="F72" t="s">
-        <v>416</v>
       </c>
       <c r="G72" s="10" t="str">
         <f t="shared" si="4"/>
         <v>&lt;key&gt;Thingol&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.71.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Elu Thingol was an Elf of the Teleri during the First Age. His brother was Olwë, who became the Lord of Alqualonde, Lord of Tol Eressëa, and High King of the Teleri of Aman, both of whom may have had a second brother called Elmo. He was a good friend of Finwë, the first High King of the Ñoldor during the times before the elves reached Aman.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Thingol&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascThingol&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I72" t="s">
+        <v>415</v>
+      </c>
+      <c r="J72" t="s">
+        <v>416</v>
+      </c>
+      <c r="K72" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="J72" t="s">
-        <v>418</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>419</v>
       </c>
       <c r="L72" s="11" t="str">
         <f t="shared" si="5"/>
         <v>&lt;key&gt;Thingol&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.71.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Эльвэ (англ.Elwe), более известный как Элу Тингол (англ.Elu Thingol) — первый вождь тэлери в Великом Походе, король Дориата и Владыка синдар. Эльвэ был рожден в ранние дни эльдар у озера Куивиэнен. Он был старшим братом Ольвэ и Эльмо.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%AD%D0%BB%D1%83_%D0%A2%D0%B8%D0%BD%D0%B3%D0%BE%D0%BB&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascThingol&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="9">
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>418</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="F73" t="s">
         <v>421</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="F73" t="s">
-        <v>423</v>
       </c>
       <c r="G73" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5067,61 +5057,61 @@
         <v>&lt;key&gt;Tulkastor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.72.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascTulkastor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="9">
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>422</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="F74" t="s">
         <v>425</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="F74" t="s">
-        <v>427</v>
       </c>
       <c r="G74" s="10" t="str">
         <f t="shared" si="4"/>
         <v>&lt;key&gt;Turgon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.73.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Turgon was a Ñoldorin Elf of Gondolin, second son of Fingolfin, brother of Fingon, Aredhel, Argon, and father of Idril. In Middle-earth, Turgon was the King of Gondolin and the High King of the Ñoldor. For hundreds of years of the First Age, Turgon remained hidden from the eyes and ears of the great enemy until a betrayal from within caused his downfall.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Turgon&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascTurgon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I74" t="s">
+        <v>426</v>
+      </c>
+      <c r="J74" t="s">
+        <v>427</v>
+      </c>
+      <c r="K74" s="8" t="s">
         <v>428</v>
-      </c>
-      <c r="J74" t="s">
-        <v>429</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>430</v>
       </c>
       <c r="L74" s="11" t="str">
         <f t="shared" si="5"/>
         <v>&lt;key&gt;Turgon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.73.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Тургон (англ.Turgon, известен как Тургон Мудрый) — второй сын Финголфина, младший брат Фингона, старший Аредели и Аргона. Отец Идриль Келебриндаль. Основатель и единственный правитель тайного города Гондолина.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%A2%D1%83%D1%80%D0%B3%D0%BE%D0%BD&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascTurgon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="9">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>429</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="F75" t="s">
         <v>432</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="F75" t="s">
-        <v>434</v>
       </c>
       <c r="G75" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5132,24 +5122,24 @@
         <v>&lt;key&gt;Voronwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.74.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascVoronwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="9">
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>433</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="8" t="s">
+      <c r="F76" t="s">
         <v>436</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="F76" t="s">
-        <v>438</v>
       </c>
       <c r="G76" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5160,24 +5150,24 @@
         <v>&lt;key&gt;Amanyar&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.75.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAmanyar&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="9">
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>437</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="F77" t="s">
         <v>440</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F77" t="s">
-        <v>442</v>
       </c>
       <c r="G77" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5188,24 +5178,24 @@
         <v>&lt;key&gt;Anendel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.76.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAnendel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="9">
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>441</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="8" t="s">
+      <c r="F78" t="s">
         <v>444</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="F78" t="s">
-        <v>446</v>
       </c>
       <c r="G78" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5216,24 +5206,24 @@
         <v>&lt;key&gt;Anglor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.77.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAnglor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="9">
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>445</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="F79" t="s">
         <v>448</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F79" t="s">
-        <v>450</v>
       </c>
       <c r="G79" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5244,21 +5234,21 @@
         <v>&lt;key&gt;Ausir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.78.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascAusir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="9">
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>449</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F80" t="s">
         <v>451</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="F80" t="s">
-        <v>453</v>
       </c>
       <c r="G80" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5269,24 +5259,24 @@
         <v>&lt;key&gt;Balglin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.79.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascBalglin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="9">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>452</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="8" t="s">
+      <c r="F81" t="s">
         <v>455</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="F81" t="s">
-        <v>457</v>
       </c>
       <c r="G81" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5297,21 +5287,21 @@
         <v>&lt;key&gt;Belurion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.80.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascBelurion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="9">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>456</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F82" t="s">
         <v>458</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="F82" t="s">
-        <v>460</v>
       </c>
       <c r="G82" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5322,24 +5312,24 @@
         <v>&lt;key&gt;Calaglin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.81.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCalaglin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="9">
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>459</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="8" t="s">
+      <c r="F83" t="s">
         <v>462</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="F83" t="s">
-        <v>464</v>
       </c>
       <c r="G83" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5350,21 +5340,21 @@
         <v>&lt;key&gt;Calaquendi&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.82.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCalaquendi&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="9">
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>463</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="F84" t="s">
         <v>465</v>
-      </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="F84" t="s">
-        <v>467</v>
       </c>
       <c r="G84" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5375,21 +5365,21 @@
         <v>&lt;key&gt;Celebring&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.83.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascCelebring&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="9">
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>466</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="F85" t="s">
         <v>468</v>
-      </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F85" t="s">
-        <v>470</v>
       </c>
       <c r="G85" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5400,24 +5390,24 @@
         <v>&lt;key&gt;Feren&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.84.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFeren&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="9">
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>469</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="8" t="s">
+      <c r="F86" t="s">
         <v>472</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F86" t="s">
-        <v>474</v>
       </c>
       <c r="G86" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5428,24 +5418,24 @@
         <v>&lt;key&gt;Figwit&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.85.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFigwit&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="9">
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>473</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="8" t="s">
+      <c r="F87" t="s">
         <v>476</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="F87" t="s">
-        <v>478</v>
       </c>
       <c r="G87" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5456,24 +5446,24 @@
         <v>&lt;key&gt;Firnmereth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.86.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascFirnmereth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="9">
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>477</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="C88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="8" t="s">
+      <c r="F88" t="s">
         <v>480</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="F88" t="s">
-        <v>482</v>
       </c>
       <c r="G88" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5484,24 +5474,24 @@
         <v>&lt;key&gt;Githramir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.87.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGithramir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="9">
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>481</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="F89" t="s">
         <v>484</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="F89" t="s">
-        <v>486</v>
       </c>
       <c r="G89" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5512,24 +5502,24 @@
         <v>&lt;key&gt;Golradir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.88.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascGolradir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="9">
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>485</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E90" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="8" t="s">
+      <c r="F90" t="s">
         <v>488</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="F90" t="s">
-        <v>490</v>
       </c>
       <c r="G90" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5540,24 +5530,24 @@
         <v>&lt;key&gt;Halladol&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.89.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascHalladol&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="9">
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>489</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="8" t="s">
+      <c r="F91" t="s">
         <v>492</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="F91" t="s">
-        <v>494</v>
       </c>
       <c r="G91" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5568,61 +5558,61 @@
         <v>&lt;key&gt;Hendor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.90.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascHendor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="9">
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>494</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E92" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="C92" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="8" t="s">
+      <c r="F92" t="s">
         <v>497</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="F92" t="s">
-        <v>499</v>
       </c>
       <c r="G92" s="10" t="str">
         <f t="shared" si="4"/>
         <v>&lt;key&gt;Lambengolmor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.91.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;The Lambengolmor were the Loremasters of the Elves in the First Age.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://lotr.wikia.com/wiki/Lambengolmor&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascLambengolmor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
       <c r="I92" t="s">
+        <v>498</v>
+      </c>
+      <c r="J92" t="s">
+        <v>499</v>
+      </c>
+      <c r="K92" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="J92" t="s">
-        <v>501</v>
-      </c>
-      <c r="K92" s="8" t="s">
-        <v>502</v>
       </c>
       <c r="L92" s="11" t="str">
         <f t="shared" si="5"/>
         <v>&lt;key&gt;Lambengolmor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.91.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;Ламбенголмор (англ.Lambengolmor) — школа «мудрецов-языковедов» в Валиноре и Средиземье. По большей части учёными были эльфы-нолдор, поскольку именно это племя более всех любило изучение языков. Основы учения были заложены в юности Феанором, и он же являлся, некоторое время, главой учёных-лингвистов. Учёные Ламбенголмор не были некой гильдией книжников, которых сожгли бы слуги Моргота на костре из их же книг, они были вождями, королями и воителями, как Феанор.&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;http://ru.lotr.wikia.com/wiki/%D0%9B%D0%B0%D0%BC%D0%B1%D0%B5%D0%BD%D0%B3%D0%BE%D0%BB%D0%BC%D0%BE%D1%80&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascLambengolmor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="9">
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>501</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="8" t="s">
+      <c r="F93" t="s">
         <v>504</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="F93" t="s">
-        <v>506</v>
       </c>
       <c r="G93" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5633,24 +5623,24 @@
         <v>&lt;key&gt;Lethuin&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.92.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascLethuin&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="9">
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>505</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E94" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="C94" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="8" t="s">
+      <c r="F94" t="s">
         <v>508</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="F94" t="s">
-        <v>510</v>
       </c>
       <c r="G94" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5661,24 +5651,24 @@
         <v>&lt;key&gt;Lhunurion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.93.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascLhunurion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="9">
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>509</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="F95" t="s">
         <v>512</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="F95" t="s">
-        <v>514</v>
       </c>
       <c r="G95" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5689,24 +5679,24 @@
         <v>&lt;key&gt;Littleheart&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.94.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascLittleheart&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="9">
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>513</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="E96" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="C96" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="8" t="s">
+      <c r="F96" t="s">
         <v>516</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="F96" t="s">
-        <v>518</v>
       </c>
       <c r="G96" s="10" t="str">
         <f t="shared" si="4"/>
@@ -5717,24 +5707,24 @@
         <v>&lt;key&gt;Melisilion&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.95.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascMelisilion&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="9">
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>517</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="C97" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="8" t="s">
+      <c r="F97" t="s">
         <v>520</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="F97" t="s">
-        <v>522</v>
       </c>
       <c r="G97" s="10" t="str">
         <f t="shared" ref="G97:G116" si="6">CONCATENATE("&lt;key&gt;",B97,"&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;","02.02.0.",A97,".01","&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;",D97,"&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;",E97,"&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;",F97,"&lt;/string&gt;&lt;/dict&gt;")</f>
@@ -5745,21 +5735,21 @@
         <v>&lt;key&gt;Morwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.96.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascMorwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="9">
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>521</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="F98" t="s">
         <v>523</v>
-      </c>
-      <c r="C98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="F98" t="s">
-        <v>525</v>
       </c>
       <c r="G98" s="10" t="str">
         <f t="shared" si="6"/>
@@ -5770,24 +5760,24 @@
         <v>&lt;key&gt;Nilfaleth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.97.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascNilfaleth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="9">
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>524</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="8" t="s">
+      <c r="F99" t="s">
         <v>527</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="F99" t="s">
-        <v>529</v>
       </c>
       <c r="G99" s="10" t="str">
         <f t="shared" si="6"/>
@@ -5798,21 +5788,21 @@
         <v>&lt;key&gt;Nurwë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.98.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascNurwe&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="9">
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>528</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="F100" t="s">
         <v>530</v>
-      </c>
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="F100" t="s">
-        <v>532</v>
       </c>
       <c r="G100" s="10" t="str">
         <f t="shared" si="6"/>
@@ -5823,24 +5813,24 @@
         <v>&lt;key&gt;Ordulus&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.99.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascOrdulus&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="9">
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>531</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E101" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="F101" t="s">
         <v>534</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="F101" t="s">
-        <v>536</v>
       </c>
       <c r="G101" s="10" t="str">
         <f t="shared" si="6"/>
@@ -5851,24 +5841,24 @@
         <v>&lt;key&gt;Orollon&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.100.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascOrollon&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="9">
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>535</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E102" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="8" t="s">
+      <c r="F102" t="s">
         <v>538</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="F102" t="s">
-        <v>540</v>
       </c>
       <c r="G102" s="10" t="str">
         <f t="shared" si="6"/>
@@ -5879,24 +5869,24 @@
         <v>&lt;key&gt;Pengedhel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.101.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascPengedhel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="9">
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>539</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E103" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="F103" t="s">
         <v>542</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F103" t="s">
-        <v>544</v>
       </c>
       <c r="G103" s="10" t="str">
         <f t="shared" si="6"/>
@@ -5907,24 +5897,24 @@
         <v>&lt;key&gt;Quendi&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.102.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascQuendi&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="9">
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>543</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="E104" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="C104" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="8" t="s">
+      <c r="F104" t="s">
         <v>546</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="F104" t="s">
-        <v>548</v>
       </c>
       <c r="G104" s="10" t="str">
         <f t="shared" si="6"/>
@@ -5935,21 +5925,21 @@
         <v>&lt;key&gt;Riodur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.103.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascRiodur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="9">
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>547</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F105" t="s">
         <v>549</v>
-      </c>
-      <c r="C105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="F105" t="s">
-        <v>551</v>
       </c>
       <c r="G105" s="10" t="str">
         <f t="shared" si="6"/>
@@ -5960,24 +5950,24 @@
         <v>&lt;key&gt;Saelbeth&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.104.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascSaelbeth&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="9">
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>550</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C106" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="8" t="s">
+      <c r="F106" t="s">
         <v>553</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="F106" t="s">
-        <v>555</v>
       </c>
       <c r="G106" s="10" t="str">
         <f t="shared" si="6"/>
@@ -5988,24 +5978,24 @@
         <v>&lt;key&gt;Silindë&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.105.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascSilinde&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="9">
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>554</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="8" t="s">
+      <c r="F107" t="s">
         <v>557</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="F107" t="s">
-        <v>559</v>
       </c>
       <c r="G107" s="10" t="str">
         <f t="shared" si="6"/>
@@ -6016,21 +6006,21 @@
         <v>&lt;key&gt;Taramel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.106.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascTaramel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="9">
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>558</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F108" t="s">
         <v>560</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="F108" t="s">
-        <v>562</v>
       </c>
       <c r="G108" s="10" t="str">
         <f t="shared" si="6"/>
@@ -6041,24 +6031,24 @@
         <v>&lt;key&gt;Taurnil&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.107.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascTaurnil&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="9">
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>561</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="C109" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="8" t="s">
+      <c r="F109" t="s">
         <v>564</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="F109" t="s">
-        <v>566</v>
       </c>
       <c r="G109" s="10" t="str">
         <f t="shared" si="6"/>
@@ -6069,24 +6059,24 @@
         <v>&lt;key&gt;Thalisule&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.108.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascThalisule&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="9">
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>565</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="C110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="8" t="s">
+      <c r="F110" t="s">
         <v>568</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="F110" t="s">
-        <v>570</v>
       </c>
       <c r="G110" s="10" t="str">
         <f t="shared" si="6"/>
@@ -6097,21 +6087,21 @@
         <v>&lt;key&gt;Thingalad&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.109.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascThingalad&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="9">
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>569</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="F111" t="s">
         <v>571</v>
-      </c>
-      <c r="C111" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="F111" t="s">
-        <v>573</v>
       </c>
       <c r="G111" s="10" t="str">
         <f t="shared" si="6"/>
@@ -6122,24 +6112,24 @@
         <v>&lt;key&gt;Thónnas&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.110.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascThonnas&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="9">
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>572</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E112" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="C112" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="8" t="s">
+      <c r="F112" t="s">
         <v>575</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="F112" t="s">
-        <v>577</v>
       </c>
       <c r="G112" s="10" t="str">
         <f t="shared" si="6"/>
@@ -6150,24 +6140,24 @@
         <v>&lt;key&gt;Thrandel&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.111.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascThrandel&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="9">
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>576</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" s="8" t="s">
+      <c r="F113" t="s">
         <v>579</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="F113" t="s">
-        <v>581</v>
       </c>
       <c r="G113" s="10" t="str">
         <f t="shared" si="6"/>
@@ -6178,24 +6168,24 @@
         <v>&lt;key&gt;Unaldor&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.112.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascUnaldor&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="9">
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>580</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" s="8" t="s">
+      <c r="F114" t="s">
         <v>583</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="F114" t="s">
-        <v>585</v>
       </c>
       <c r="G114" s="10" t="str">
         <f t="shared" si="6"/>
@@ -6206,24 +6196,24 @@
         <v>&lt;key&gt;Uremir&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.113.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascUremir&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="9">
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>585</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E115" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="8" t="s">
+      <c r="F115" t="s">
         <v>588</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="F115" t="s">
-        <v>590</v>
       </c>
       <c r="G115" s="10" t="str">
         <f t="shared" si="6"/>
@@ -6234,24 +6224,24 @@
         <v>&lt;key&gt;Vadrieldur&lt;/key&gt;&lt;dict&gt;&lt;key&gt;nameID&lt;/key&gt;&lt;string&gt;02.02.0.114.01&lt;/string&gt;&lt;key&gt;nameDescription&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameURL&lt;/key&gt;&lt;string&gt;&lt;/string&gt;&lt;key&gt;nameImageName&lt;/key&gt;&lt;string&gt;FictionTolkienElvesMascVadrieldur&lt;/string&gt;&lt;/dict&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="9">
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>589</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="8" t="s">
+      <c r="F116" t="s">
         <v>592</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="F116" t="s">
-        <v>594</v>
       </c>
       <c r="G116" s="10" t="str">
         <f t="shared" si="6"/>
@@ -6264,7 +6254,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6276,1405 +6266,1405 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="25.1328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="34.1328125" style="8" customWidth="1"/>
     <col min="3" max="3" width="47" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B5" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="10" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="B11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="C11" s="8" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C12" s="8" t="s">
+    <row r="16" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="19" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="8" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="8" t="s">
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="C20" s="8" t="s">
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C21" s="8" t="s">
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="8" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C23" s="8" t="s">
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="8" t="s">
+    <row r="27" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="8" t="s">
+    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C27" s="8" t="s">
+    <row r="29" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C28" s="8" t="s">
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="8" t="s">
+    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="8" t="s">
+    <row r="32" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="8" t="s">
+    <row r="33" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="8" t="s">
+    <row r="34" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="C33" s="8" t="s">
+    <row r="35" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="8" t="s">
+    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="8" t="s">
+    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="8" t="s">
+    <row r="38" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="C39" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="C39" s="8" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="B69" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="C136" s="8" t="s">
+    <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="8" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="C137" s="8" t="s">
+      <c r="C140" s="8" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
+    <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="C140" s="8" t="s">
+    </row>
+    <row r="142" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C143" s="8" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C141" s="8" t="s">
+    <row r="144" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C144" s="8" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="8" t="s">
+    <row r="145" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C145" s="8" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="8" t="s">
+    <row r="146" spans="3:3" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C146" s="8" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="145" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="8" t="s">
+    <row r="147" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C147" s="8" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="146" spans="3:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="8" t="s">
+    <row r="148" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C148" s="8" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="147" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="8" t="s">
+    <row r="149" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C149" s="8" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="148" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="8" t="s">
+    <row r="150" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C150" s="8" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="149" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="8" t="s">
+    <row r="151" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C151" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C152" s="8" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="150" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="8" t="s">
+    <row r="153" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C153" s="8" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="151" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="8" t="s">
+    <row r="154" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C154" s="8" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="8" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="8" t="s">
-        <v>729</v>
       </c>
     </row>
   </sheetData>
